--- a/ys_xml/A00_TimeTable/2018/2018_01.xlsx
+++ b/ys_xml/A00_TimeTable/2018/2018_01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="656" activeTab="3"/>
+    <workbookView xWindow="6520" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="656"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="24" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="87">
   <si>
     <t>计划清单</t>
   </si>
@@ -213,6 +213,102 @@
   <si>
     <t>醒</t>
   </si>
+  <si>
+    <t>睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱、洗头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunLoop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不记得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【羞羞的铁拳】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擦羽绒服、吃饼干等杂事；时间记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私有pods库练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【引爆者】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私有Pods库练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改Bug；打包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高数7-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -261,7 +357,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,8 +436,38 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -675,8 +801,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -708,8 +858,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -822,59 +978,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -909,8 +1026,98 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="37">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -926,6 +1133,9 @@
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -941,6 +1151,9 @@
     <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1272,14 +1485,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:O23"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="1" customWidth="1"/>
-    <col min="2" max="8" width="13.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="1" customWidth="1"/>
+    <col min="5" max="8" width="13.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="4.6640625" style="1" customWidth="1"/>
     <col min="10" max="15" width="14.1640625" style="1" customWidth="1"/>
     <col min="16" max="16384" width="10.83203125" style="1"/>
@@ -1330,7 +1546,7 @@
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -1351,7 +1567,7 @@
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1372,9 +1588,11 @@
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1385,7 +1603,7 @@
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1404,588 +1622,644 @@
       <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>63</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="39"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="57"/>
     </row>
     <row r="7" spans="1:15" ht="23" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" ht="23" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="72" t="s">
+        <v>64</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="59"/>
     </row>
     <row r="9" spans="1:15" ht="23" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>66</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" ht="23" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>67</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="41"/>
-    </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1">
+      <c r="J10" s="42"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="59"/>
+    </row>
+    <row r="11" spans="1:15" ht="34" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="79" t="s">
+        <v>72</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="43"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="61"/>
     </row>
     <row r="12" spans="1:15" ht="23" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="76" t="s">
+        <v>73</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="47" t="s">
+      <c r="J12" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="49"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="63"/>
     </row>
     <row r="13" spans="1:15" ht="23" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="51"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="65"/>
     </row>
     <row r="14" spans="1:15" ht="23" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="78"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="51"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="65"/>
     </row>
     <row r="15" spans="1:15" ht="23" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79" t="s">
+        <v>69</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="65"/>
     </row>
     <row r="16" spans="1:15" ht="23" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="82" t="s">
+        <v>74</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="51"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="65"/>
     </row>
     <row r="17" spans="1:15" ht="23" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="80" t="s">
+        <v>75</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="51"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="65"/>
     </row>
     <row r="18" spans="1:15" ht="23" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="81"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="47" t="s">
+      <c r="J18" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="53"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="67"/>
     </row>
     <row r="19" spans="1:15" ht="23" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="82" t="s">
+        <v>76</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="55"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="69"/>
     </row>
     <row r="20" spans="1:15" ht="23" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="76" t="s">
+        <v>77</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="69"/>
     </row>
     <row r="21" spans="1:15" ht="23" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="55"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="69"/>
     </row>
     <row r="22" spans="1:15" ht="23" customHeight="1">
       <c r="A22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="55"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="69"/>
     </row>
     <row r="23" spans="1:15" ht="23" customHeight="1">
       <c r="A23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="55"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="69"/>
     </row>
     <row r="24" spans="1:15" ht="23" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="47" t="s">
+      <c r="J24" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="57"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="44"/>
     </row>
     <row r="25" spans="1:15" ht="23" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="77"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="59"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="46"/>
     </row>
     <row r="26" spans="1:15" ht="23" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="59"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="46"/>
     </row>
     <row r="27" spans="1:15" ht="23" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="59"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="46"/>
     </row>
     <row r="28" spans="1:15" ht="23" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="73" t="s">
+        <v>77</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="59"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="46"/>
     </row>
     <row r="29" spans="1:15" ht="23" customHeight="1">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="73" t="s">
+        <v>79</v>
+      </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="59"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="46"/>
     </row>
     <row r="30" spans="1:15" ht="23" customHeight="1">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="70" t="s">
+        <v>80</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="47" t="s">
+      <c r="J30" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="62"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="49"/>
     </row>
     <row r="31" spans="1:15" ht="23" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="4"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="71"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="64"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="51"/>
     </row>
     <row r="32" spans="1:15" ht="23" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="79" t="s">
+        <v>81</v>
+      </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="64"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="51"/>
     </row>
     <row r="33" spans="1:15" ht="23" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="82" t="s">
+        <v>85</v>
+      </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="64"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="51"/>
     </row>
     <row r="34" spans="1:15" ht="23" customHeight="1">
       <c r="A34" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="74" t="s">
+        <v>82</v>
+      </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="64"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="51"/>
     </row>
     <row r="35" spans="1:15" ht="23" customHeight="1" thickBot="1">
       <c r="A35" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="4"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="66"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="53"/>
     </row>
     <row r="36" spans="1:15" ht="23" customHeight="1">
       <c r="A36" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="4"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="70" t="s">
+        <v>83</v>
+      </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1997,8 +2271,8 @@
       <c r="A37" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="83"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -2016,8 +2290,8 @@
       <c r="A38" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="4"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="71"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -2035,8 +2309,10 @@
       <c r="A39" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="4"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="70" t="s">
+        <v>84</v>
+      </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -2054,8 +2330,8 @@
       <c r="A40" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="4"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="71"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -2073,7 +2349,7 @@
       <c r="A41" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="10"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -2092,7 +2368,7 @@
       <c r="A42" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="10"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -2111,7 +2387,7 @@
       <c r="A43" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="10"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -2130,7 +2406,7 @@
       <c r="A44" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="10"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2149,7 +2425,7 @@
       <c r="A45" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="10"/>
+      <c r="B45" s="39"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -2168,7 +2444,7 @@
       <c r="A46" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="10"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -3124,9 +3400,11 @@
       <c r="O100" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="J24:J29"/>
-    <mergeCell ref="K24:O29"/>
+  <mergeCells count="21">
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C40"/>
     <mergeCell ref="J30:J35"/>
     <mergeCell ref="K30:O35"/>
     <mergeCell ref="J6:J11"/>
@@ -3135,6 +3413,15 @@
     <mergeCell ref="K12:O17"/>
     <mergeCell ref="J18:J23"/>
     <mergeCell ref="K18:O23"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="J24:J29"/>
+    <mergeCell ref="K24:O29"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="C20:C27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3291,14 +3578,14 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="39"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="57"/>
     </row>
     <row r="7" spans="1:15" ht="23" customHeight="1">
       <c r="A7" s="11" t="s">
@@ -3312,12 +3599,12 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" ht="23" customHeight="1">
       <c r="A8" s="11" t="s">
@@ -3331,12 +3618,12 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="59"/>
     </row>
     <row r="9" spans="1:15" ht="23" customHeight="1">
       <c r="A9" s="11" t="s">
@@ -3350,12 +3637,12 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" ht="23" customHeight="1">
       <c r="A10" s="11" t="s">
@@ -3369,12 +3656,12 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="41"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="59"/>
     </row>
     <row r="11" spans="1:15" ht="23" customHeight="1">
       <c r="A11" s="11" t="s">
@@ -3388,12 +3675,12 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="43"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="61"/>
     </row>
     <row r="12" spans="1:15" ht="23" customHeight="1">
       <c r="A12" s="11" t="s">
@@ -3407,14 +3694,14 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="47" t="s">
+      <c r="J12" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="49"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="63"/>
     </row>
     <row r="13" spans="1:15" ht="23" customHeight="1">
       <c r="A13" s="11" t="s">
@@ -3428,12 +3715,12 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="51"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="65"/>
     </row>
     <row r="14" spans="1:15" ht="23" customHeight="1">
       <c r="A14" s="11" t="s">
@@ -3447,12 +3734,12 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="51"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="65"/>
     </row>
     <row r="15" spans="1:15" ht="23" customHeight="1">
       <c r="A15" s="11" t="s">
@@ -3466,12 +3753,12 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="65"/>
     </row>
     <row r="16" spans="1:15" ht="23" customHeight="1">
       <c r="A16" s="11" t="s">
@@ -3485,12 +3772,12 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="51"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="65"/>
     </row>
     <row r="17" spans="1:15" ht="23" customHeight="1">
       <c r="A17" s="11" t="s">
@@ -3504,12 +3791,12 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="51"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="65"/>
     </row>
     <row r="18" spans="1:15" ht="23" customHeight="1">
       <c r="A18" s="11" t="s">
@@ -3523,14 +3810,14 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="47" t="s">
+      <c r="J18" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="53"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="67"/>
     </row>
     <row r="19" spans="1:15" ht="23" customHeight="1">
       <c r="A19" s="11" t="s">
@@ -3544,12 +3831,12 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="55"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="69"/>
     </row>
     <row r="20" spans="1:15" ht="23" customHeight="1">
       <c r="A20" s="11" t="s">
@@ -3563,12 +3850,12 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="69"/>
     </row>
     <row r="21" spans="1:15" ht="23" customHeight="1">
       <c r="A21" s="11" t="s">
@@ -3582,12 +3869,12 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="55"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="69"/>
     </row>
     <row r="22" spans="1:15" ht="23" customHeight="1">
       <c r="A22" s="11" t="s">
@@ -3601,12 +3888,12 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="55"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="69"/>
     </row>
     <row r="23" spans="1:15" ht="23" customHeight="1">
       <c r="A23" s="11" t="s">
@@ -3620,12 +3907,12 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="55"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="69"/>
     </row>
     <row r="24" spans="1:15" ht="23" customHeight="1">
       <c r="A24" s="11" t="s">
@@ -3639,14 +3926,14 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="47" t="s">
+      <c r="J24" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="57"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="44"/>
     </row>
     <row r="25" spans="1:15" ht="23" customHeight="1">
       <c r="A25" s="11" t="s">
@@ -3660,12 +3947,12 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="59"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="46"/>
     </row>
     <row r="26" spans="1:15" ht="23" customHeight="1">
       <c r="A26" s="11" t="s">
@@ -3679,12 +3966,12 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="59"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="46"/>
     </row>
     <row r="27" spans="1:15" ht="23" customHeight="1">
       <c r="A27" s="11" t="s">
@@ -3698,12 +3985,12 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="59"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="46"/>
     </row>
     <row r="28" spans="1:15" ht="23" customHeight="1">
       <c r="A28" s="11" t="s">
@@ -3717,12 +4004,12 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="59"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="46"/>
     </row>
     <row r="29" spans="1:15" ht="23" customHeight="1">
       <c r="A29" s="11" t="s">
@@ -3736,12 +4023,12 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="59"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="46"/>
     </row>
     <row r="30" spans="1:15" ht="23" customHeight="1">
       <c r="A30" s="11" t="s">
@@ -3755,14 +4042,14 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="47" t="s">
+      <c r="J30" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="62"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="49"/>
     </row>
     <row r="31" spans="1:15" ht="23" customHeight="1">
       <c r="A31" s="11" t="s">
@@ -3776,12 +4063,12 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="64"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="51"/>
     </row>
     <row r="32" spans="1:15" ht="23" customHeight="1">
       <c r="A32" s="11" t="s">
@@ -3795,12 +4082,12 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="64"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="51"/>
     </row>
     <row r="33" spans="1:15" ht="23" customHeight="1">
       <c r="A33" s="11" t="s">
@@ -3814,12 +4101,12 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="64"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="51"/>
     </row>
     <row r="34" spans="1:15" ht="23" customHeight="1">
       <c r="A34" s="11" t="s">
@@ -3833,12 +4120,12 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="64"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="51"/>
     </row>
     <row r="35" spans="1:15" ht="23" customHeight="1" thickBot="1">
       <c r="A35" s="11" t="s">
@@ -3852,12 +4139,12 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="66"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="53"/>
     </row>
     <row r="36" spans="1:15" ht="23" customHeight="1">
       <c r="A36" s="11" t="s">
@@ -5170,14 +5457,14 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="39"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="57"/>
     </row>
     <row r="7" spans="1:15" ht="23" customHeight="1">
       <c r="A7" s="11" t="s">
@@ -5191,12 +5478,12 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" ht="23" customHeight="1">
       <c r="A8" s="11" t="s">
@@ -5210,12 +5497,12 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="59"/>
     </row>
     <row r="9" spans="1:15" ht="23" customHeight="1">
       <c r="A9" s="11" t="s">
@@ -5229,12 +5516,12 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" ht="23" customHeight="1">
       <c r="A10" s="11" t="s">
@@ -5248,12 +5535,12 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="41"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="59"/>
     </row>
     <row r="11" spans="1:15" ht="23" customHeight="1">
       <c r="A11" s="11" t="s">
@@ -5267,12 +5554,12 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="43"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="61"/>
     </row>
     <row r="12" spans="1:15" ht="23" customHeight="1">
       <c r="A12" s="11" t="s">
@@ -5286,14 +5573,14 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="47" t="s">
+      <c r="J12" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="49"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="63"/>
     </row>
     <row r="13" spans="1:15" ht="23" customHeight="1">
       <c r="A13" s="11" t="s">
@@ -5307,12 +5594,12 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="51"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="65"/>
     </row>
     <row r="14" spans="1:15" ht="23" customHeight="1">
       <c r="A14" s="11" t="s">
@@ -5326,12 +5613,12 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="51"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="65"/>
     </row>
     <row r="15" spans="1:15" ht="23" customHeight="1">
       <c r="A15" s="11" t="s">
@@ -5345,12 +5632,12 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="65"/>
     </row>
     <row r="16" spans="1:15" ht="23" customHeight="1">
       <c r="A16" s="11" t="s">
@@ -5364,12 +5651,12 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="51"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="65"/>
     </row>
     <row r="17" spans="1:15" ht="23" customHeight="1">
       <c r="A17" s="11" t="s">
@@ -5383,12 +5670,12 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="51"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="65"/>
     </row>
     <row r="18" spans="1:15" ht="23" customHeight="1">
       <c r="A18" s="11" t="s">
@@ -5402,14 +5689,14 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="47" t="s">
+      <c r="J18" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="53"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="67"/>
     </row>
     <row r="19" spans="1:15" ht="23" customHeight="1">
       <c r="A19" s="11" t="s">
@@ -5423,12 +5710,12 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="55"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="69"/>
     </row>
     <row r="20" spans="1:15" ht="23" customHeight="1">
       <c r="A20" s="11" t="s">
@@ -5442,12 +5729,12 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="69"/>
     </row>
     <row r="21" spans="1:15" ht="23" customHeight="1">
       <c r="A21" s="11" t="s">
@@ -5461,12 +5748,12 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="55"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="69"/>
     </row>
     <row r="22" spans="1:15" ht="23" customHeight="1">
       <c r="A22" s="11" t="s">
@@ -5480,12 +5767,12 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="55"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="69"/>
     </row>
     <row r="23" spans="1:15" ht="23" customHeight="1">
       <c r="A23" s="11" t="s">
@@ -5499,12 +5786,12 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="55"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="69"/>
     </row>
     <row r="24" spans="1:15" ht="23" customHeight="1">
       <c r="A24" s="11" t="s">
@@ -5518,14 +5805,14 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="47" t="s">
+      <c r="J24" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="57"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="44"/>
     </row>
     <row r="25" spans="1:15" ht="23" customHeight="1">
       <c r="A25" s="11" t="s">
@@ -5539,12 +5826,12 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="59"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="46"/>
     </row>
     <row r="26" spans="1:15" ht="23" customHeight="1">
       <c r="A26" s="11" t="s">
@@ -5558,12 +5845,12 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="59"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="46"/>
     </row>
     <row r="27" spans="1:15" ht="23" customHeight="1">
       <c r="A27" s="11" t="s">
@@ -5577,12 +5864,12 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="59"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="46"/>
     </row>
     <row r="28" spans="1:15" ht="23" customHeight="1">
       <c r="A28" s="11" t="s">
@@ -5596,12 +5883,12 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="59"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="46"/>
     </row>
     <row r="29" spans="1:15" ht="23" customHeight="1">
       <c r="A29" s="11" t="s">
@@ -5615,12 +5902,12 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="59"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="46"/>
     </row>
     <row r="30" spans="1:15" ht="23" customHeight="1">
       <c r="A30" s="11" t="s">
@@ -5634,14 +5921,14 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="47" t="s">
+      <c r="J30" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="62"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="49"/>
     </row>
     <row r="31" spans="1:15" ht="23" customHeight="1">
       <c r="A31" s="11" t="s">
@@ -5655,12 +5942,12 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="64"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="51"/>
     </row>
     <row r="32" spans="1:15" ht="23" customHeight="1">
       <c r="A32" s="11" t="s">
@@ -5674,12 +5961,12 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="64"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="51"/>
     </row>
     <row r="33" spans="1:15" ht="23" customHeight="1">
       <c r="A33" s="11" t="s">
@@ -5693,12 +5980,12 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="64"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="51"/>
     </row>
     <row r="34" spans="1:15" ht="23" customHeight="1">
       <c r="A34" s="11" t="s">
@@ -5712,12 +5999,12 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="64"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="51"/>
     </row>
     <row r="35" spans="1:15" ht="23" customHeight="1" thickBot="1">
       <c r="A35" s="11" t="s">
@@ -5731,12 +6018,12 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="66"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="53"/>
     </row>
     <row r="36" spans="1:15" ht="23" customHeight="1">
       <c r="A36" s="11" t="s">
@@ -6909,7 +7196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="K18" sqref="K18:O23"/>
     </sheetView>
   </sheetViews>
@@ -7049,14 +7336,14 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="39"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="57"/>
     </row>
     <row r="7" spans="1:15" ht="23" customHeight="1">
       <c r="A7" s="11" t="s">
@@ -7070,12 +7357,12 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" ht="23" customHeight="1">
       <c r="A8" s="11" t="s">
@@ -7089,12 +7376,12 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="59"/>
     </row>
     <row r="9" spans="1:15" ht="23" customHeight="1">
       <c r="A9" s="11" t="s">
@@ -7108,12 +7395,12 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" ht="23" customHeight="1">
       <c r="A10" s="11" t="s">
@@ -7127,12 +7414,12 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="41"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="59"/>
     </row>
     <row r="11" spans="1:15" ht="23" customHeight="1">
       <c r="A11" s="11" t="s">
@@ -7146,12 +7433,12 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="43"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="61"/>
     </row>
     <row r="12" spans="1:15" ht="23" customHeight="1">
       <c r="A12" s="11" t="s">
@@ -7165,14 +7452,14 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="47" t="s">
+      <c r="J12" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="49"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="63"/>
     </row>
     <row r="13" spans="1:15" ht="23" customHeight="1">
       <c r="A13" s="11" t="s">
@@ -7186,12 +7473,12 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="51"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="65"/>
     </row>
     <row r="14" spans="1:15" ht="23" customHeight="1">
       <c r="A14" s="11" t="s">
@@ -7205,12 +7492,12 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="51"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="65"/>
     </row>
     <row r="15" spans="1:15" ht="23" customHeight="1">
       <c r="A15" s="11" t="s">
@@ -7224,12 +7511,12 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="65"/>
     </row>
     <row r="16" spans="1:15" ht="23" customHeight="1">
       <c r="A16" s="11" t="s">
@@ -7243,12 +7530,12 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="51"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="65"/>
     </row>
     <row r="17" spans="1:15" ht="23" customHeight="1">
       <c r="A17" s="11" t="s">
@@ -7262,12 +7549,12 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="51"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="65"/>
     </row>
     <row r="18" spans="1:15" ht="23" customHeight="1">
       <c r="A18" s="11" t="s">
@@ -7281,14 +7568,14 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="47" t="s">
+      <c r="J18" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="53"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="67"/>
     </row>
     <row r="19" spans="1:15" ht="23" customHeight="1">
       <c r="A19" s="11" t="s">
@@ -7302,12 +7589,12 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="55"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="69"/>
     </row>
     <row r="20" spans="1:15" ht="23" customHeight="1">
       <c r="A20" s="11" t="s">
@@ -7321,12 +7608,12 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="69"/>
     </row>
     <row r="21" spans="1:15" ht="23" customHeight="1">
       <c r="A21" s="11" t="s">
@@ -7340,12 +7627,12 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="55"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="69"/>
     </row>
     <row r="22" spans="1:15" ht="23" customHeight="1">
       <c r="A22" s="11" t="s">
@@ -7359,12 +7646,12 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="55"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="69"/>
     </row>
     <row r="23" spans="1:15" ht="23" customHeight="1">
       <c r="A23" s="11" t="s">
@@ -7378,12 +7665,12 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="55"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="69"/>
     </row>
     <row r="24" spans="1:15" ht="23" customHeight="1">
       <c r="A24" s="11" t="s">
@@ -7397,14 +7684,14 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="47" t="s">
+      <c r="J24" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="57"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="44"/>
     </row>
     <row r="25" spans="1:15" ht="23" customHeight="1">
       <c r="A25" s="11" t="s">
@@ -7418,12 +7705,12 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="59"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="46"/>
     </row>
     <row r="26" spans="1:15" ht="23" customHeight="1">
       <c r="A26" s="11" t="s">
@@ -7437,12 +7724,12 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="59"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="46"/>
     </row>
     <row r="27" spans="1:15" ht="23" customHeight="1">
       <c r="A27" s="11" t="s">
@@ -7456,12 +7743,12 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="59"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="46"/>
     </row>
     <row r="28" spans="1:15" ht="23" customHeight="1">
       <c r="A28" s="11" t="s">
@@ -7475,12 +7762,12 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="59"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="46"/>
     </row>
     <row r="29" spans="1:15" ht="23" customHeight="1">
       <c r="A29" s="11" t="s">
@@ -7494,12 +7781,12 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="59"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="46"/>
     </row>
     <row r="30" spans="1:15" ht="23" customHeight="1">
       <c r="A30" s="11" t="s">
@@ -7513,14 +7800,14 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="47" t="s">
+      <c r="J30" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="62"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="49"/>
     </row>
     <row r="31" spans="1:15" ht="23" customHeight="1">
       <c r="A31" s="11" t="s">
@@ -7534,12 +7821,12 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="64"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="51"/>
     </row>
     <row r="32" spans="1:15" ht="23" customHeight="1">
       <c r="A32" s="11" t="s">
@@ -7553,12 +7840,12 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="64"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="51"/>
     </row>
     <row r="33" spans="1:15" ht="23" customHeight="1">
       <c r="A33" s="11" t="s">
@@ -7572,12 +7859,12 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="64"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="51"/>
     </row>
     <row r="34" spans="1:15" ht="23" customHeight="1">
       <c r="A34" s="11" t="s">
@@ -7591,12 +7878,12 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="64"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="51"/>
     </row>
     <row r="35" spans="1:15" ht="23" customHeight="1" thickBot="1">
       <c r="A35" s="11" t="s">
@@ -7610,12 +7897,12 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="66"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="53"/>
     </row>
     <row r="36" spans="1:15" ht="23" customHeight="1">
       <c r="A36" s="11" t="s">
@@ -8928,14 +9215,14 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="39"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="57"/>
     </row>
     <row r="7" spans="1:15" ht="23" customHeight="1">
       <c r="A7" s="11" t="s">
@@ -8949,12 +9236,12 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" ht="23" customHeight="1">
       <c r="A8" s="11" t="s">
@@ -8968,12 +9255,12 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="59"/>
     </row>
     <row r="9" spans="1:15" ht="23" customHeight="1">
       <c r="A9" s="11" t="s">
@@ -8987,12 +9274,12 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" ht="23" customHeight="1">
       <c r="A10" s="11" t="s">
@@ -9006,12 +9293,12 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="41"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="59"/>
     </row>
     <row r="11" spans="1:15" ht="23" customHeight="1">
       <c r="A11" s="11" t="s">
@@ -9025,12 +9312,12 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="43"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="61"/>
     </row>
     <row r="12" spans="1:15" ht="23" customHeight="1">
       <c r="A12" s="11" t="s">
@@ -9044,14 +9331,14 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="47" t="s">
+      <c r="J12" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="49"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="63"/>
     </row>
     <row r="13" spans="1:15" ht="23" customHeight="1">
       <c r="A13" s="11" t="s">
@@ -9065,12 +9352,12 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="51"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="65"/>
     </row>
     <row r="14" spans="1:15" ht="23" customHeight="1">
       <c r="A14" s="11" t="s">
@@ -9084,12 +9371,12 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="51"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="65"/>
     </row>
     <row r="15" spans="1:15" ht="23" customHeight="1">
       <c r="A15" s="11" t="s">
@@ -9103,12 +9390,12 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="65"/>
     </row>
     <row r="16" spans="1:15" ht="23" customHeight="1">
       <c r="A16" s="11" t="s">
@@ -9122,12 +9409,12 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="51"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="65"/>
     </row>
     <row r="17" spans="1:15" ht="23" customHeight="1">
       <c r="A17" s="11" t="s">
@@ -9141,12 +9428,12 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="51"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="65"/>
     </row>
     <row r="18" spans="1:15" ht="23" customHeight="1">
       <c r="A18" s="11" t="s">
@@ -9160,14 +9447,14 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="47" t="s">
+      <c r="J18" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="53"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="67"/>
     </row>
     <row r="19" spans="1:15" ht="23" customHeight="1">
       <c r="A19" s="11" t="s">
@@ -9181,12 +9468,12 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="55"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="69"/>
     </row>
     <row r="20" spans="1:15" ht="23" customHeight="1">
       <c r="A20" s="11" t="s">
@@ -9200,12 +9487,12 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="69"/>
     </row>
     <row r="21" spans="1:15" ht="23" customHeight="1">
       <c r="A21" s="11" t="s">
@@ -9219,12 +9506,12 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="55"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="69"/>
     </row>
     <row r="22" spans="1:15" ht="23" customHeight="1">
       <c r="A22" s="11" t="s">
@@ -9238,12 +9525,12 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="55"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="69"/>
     </row>
     <row r="23" spans="1:15" ht="23" customHeight="1">
       <c r="A23" s="11" t="s">
@@ -9257,12 +9544,12 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="55"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="69"/>
     </row>
     <row r="24" spans="1:15" ht="23" customHeight="1">
       <c r="A24" s="11" t="s">
@@ -9276,14 +9563,14 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="47" t="s">
+      <c r="J24" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="57"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="44"/>
     </row>
     <row r="25" spans="1:15" ht="23" customHeight="1">
       <c r="A25" s="11" t="s">
@@ -9297,12 +9584,12 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="59"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="46"/>
     </row>
     <row r="26" spans="1:15" ht="23" customHeight="1">
       <c r="A26" s="11" t="s">
@@ -9316,12 +9603,12 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="59"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="46"/>
     </row>
     <row r="27" spans="1:15" ht="23" customHeight="1">
       <c r="A27" s="11" t="s">
@@ -9335,12 +9622,12 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="59"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="46"/>
     </row>
     <row r="28" spans="1:15" ht="23" customHeight="1">
       <c r="A28" s="11" t="s">
@@ -9354,12 +9641,12 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="59"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="46"/>
     </row>
     <row r="29" spans="1:15" ht="23" customHeight="1">
       <c r="A29" s="11" t="s">
@@ -9373,12 +9660,12 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="59"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="46"/>
     </row>
     <row r="30" spans="1:15" ht="23" customHeight="1">
       <c r="A30" s="11" t="s">
@@ -9392,14 +9679,14 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="47" t="s">
+      <c r="J30" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="62"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="49"/>
     </row>
     <row r="31" spans="1:15" ht="23" customHeight="1">
       <c r="A31" s="11" t="s">
@@ -9413,12 +9700,12 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="64"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="51"/>
     </row>
     <row r="32" spans="1:15" ht="23" customHeight="1">
       <c r="A32" s="11" t="s">
@@ -9432,12 +9719,12 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="64"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="51"/>
     </row>
     <row r="33" spans="1:15" ht="23" customHeight="1">
       <c r="A33" s="11" t="s">
@@ -9451,12 +9738,12 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="64"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="51"/>
     </row>
     <row r="34" spans="1:15" ht="23" customHeight="1">
       <c r="A34" s="11" t="s">
@@ -9470,12 +9757,12 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="64"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="51"/>
     </row>
     <row r="35" spans="1:15" ht="23" customHeight="1" thickBot="1">
       <c r="A35" s="11" t="s">
@@ -9489,12 +9776,12 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="66"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="53"/>
     </row>
     <row r="36" spans="1:15" ht="23" customHeight="1">
       <c r="A36" s="11" t="s">
